--- a/08025-08975 Marks (compact) 17-18 (1).xlsx
+++ b/08025-08975 Marks (compact) 17-18 (1).xlsx
@@ -978,7 +978,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomRight" activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1016,7 +1016,7 @@
       </c>
       <c r="D3" s="4">
         <f t="shared" ref="D3" si="0">SUMPRODUCT($C4:$C16,D4:D16)/SUM($C4:$C16)/10</f>
-        <v>0.578125</v>
+        <v>0.53125</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -1076,7 +1076,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="38">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -1100,7 +1100,7 @@
         <v>4</v>
       </c>
       <c r="D10" s="38">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -1148,7 +1148,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="38">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -1160,7 +1160,7 @@
         <v>2</v>
       </c>
       <c r="D15" s="38">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -1338,7 +1338,7 @@
       </c>
       <c r="D31" s="4">
         <f t="shared" ref="D31" si="1">SUMPRODUCT($C32:$C36,D32:D36)/SUM($C32:$C36)/10</f>
-        <v>0.7</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
@@ -1382,7 +1382,7 @@
         <v>1</v>
       </c>
       <c r="D35" s="38">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -1393,7 +1393,7 @@
         <v>1</v>
       </c>
       <c r="D36" s="38">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -1410,7 +1410,7 @@
       </c>
       <c r="D38" s="32">
         <f>(D3*$C3+D18*$C18)/($C3+$C18)</f>
-        <v>0.48359374999999993</v>
+        <v>0.44843749999999999</v>
       </c>
     </row>
     <row r="39" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.2">
@@ -1423,7 +1423,7 @@
       </c>
       <c r="D39" s="29">
         <f t="shared" si="2"/>
-        <v>0.7</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="40" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.2">
@@ -1436,7 +1436,7 @@
       </c>
       <c r="D40" s="20">
         <f>SUMPRODUCT($C38:$C39,D38:D39)</f>
-        <v>0.52687499999999998</v>
+        <v>0.52275000000000005</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="D43" s="4">
         <f t="shared" ref="D43" si="3">D38</f>
-        <v>0.48359374999999993</v>
+        <v>0.44843749999999999</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -1593,7 +1593,7 @@
       </c>
       <c r="D57" s="31">
         <f t="shared" ref="D57" si="6">D31</f>
-        <v>0.7</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.2">
@@ -1611,7 +1611,7 @@
       </c>
       <c r="D59" s="32">
         <f t="shared" ref="D59" si="7">D45*(D43*$C43 + (1-$C43 ))</f>
-        <v>0.63851562499999992</v>
+        <v>0.6139062500000001</v>
       </c>
     </row>
     <row r="60" spans="2:6" s="27" customFormat="1" x14ac:dyDescent="0.2">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="D60" s="29">
         <f t="shared" ref="D60" si="8">D52*(D43*$C43 + (1-$C43 ))</f>
-        <v>0.63851562499999992</v>
+        <v>0.6139062500000001</v>
       </c>
     </row>
     <row r="61" spans="2:6" s="27" customFormat="1" x14ac:dyDescent="0.2">
@@ -1637,7 +1637,7 @@
       </c>
       <c r="D61" s="29">
         <f t="shared" si="9"/>
-        <v>0.7</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="62" spans="2:6" s="21" customFormat="1" x14ac:dyDescent="0.2">
@@ -1650,7 +1650,7 @@
       </c>
       <c r="D62" s="20">
         <f t="shared" ref="D62" si="10">SUMPRODUCT($C59:$C61,D59:D61)</f>
-        <v>0.65081250000000002</v>
+        <v>0.65512500000000007</v>
       </c>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.2">

--- a/08025-08975 Marks (compact) 17-18 (1).xlsx
+++ b/08025-08975 Marks (compact) 17-18 (1).xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\MSc CompSci for GamesDev\RealTime Graphics\DXTK Example\DXTK-Sample-Practice\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Kevin Barr MSc\RTG FINAL FINAL V2 FINAL\DXTK-Sample-Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -975,10 +975,10 @@
   <dimension ref="A1:F64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D42" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F26" sqref="F26"/>
+      <selection pane="bottomRight" activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1016,7 +1016,7 @@
       </c>
       <c r="D3" s="4">
         <f t="shared" ref="D3" si="0">SUMPRODUCT($C4:$C16,D4:D16)/SUM($C4:$C16)/10</f>
-        <v>0.53125</v>
+        <v>0.54062500000000002</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -1064,7 +1064,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="38">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -1076,7 +1076,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="38">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -1136,7 +1136,7 @@
         <v>2</v>
       </c>
       <c r="D13" s="38">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -1148,7 +1148,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="38">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -1160,7 +1160,7 @@
         <v>2</v>
       </c>
       <c r="D15" s="38">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -1190,7 +1190,7 @@
       </c>
       <c r="D18" s="4">
         <f>MIN(1,SUMPRODUCT($C19:$C28,D19:D28)/20/10)</f>
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -1286,7 +1286,7 @@
         <v>4</v>
       </c>
       <c r="D26" s="38">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -1338,7 +1338,7 @@
       </c>
       <c r="D31" s="4">
         <f t="shared" ref="D31" si="1">SUMPRODUCT($C32:$C36,D32:D36)/SUM($C32:$C36)/10</f>
-        <v>0.82</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
@@ -1349,7 +1349,7 @@
         <v>1</v>
       </c>
       <c r="D32" s="38">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
@@ -1360,7 +1360,7 @@
         <v>1</v>
       </c>
       <c r="D33" s="38">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -1371,7 +1371,7 @@
         <v>1</v>
       </c>
       <c r="D34" s="38">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -1382,7 +1382,7 @@
         <v>1</v>
       </c>
       <c r="D35" s="38">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -1393,7 +1393,7 @@
         <v>1</v>
       </c>
       <c r="D36" s="38">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -1410,7 +1410,7 @@
       </c>
       <c r="D38" s="32">
         <f>(D3*$C3+D18*$C18)/($C3+$C18)</f>
-        <v>0.44843749999999999</v>
+        <v>0.43046875000000001</v>
       </c>
     </row>
     <row r="39" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.2">
@@ -1423,7 +1423,7 @@
       </c>
       <c r="D39" s="29">
         <f t="shared" si="2"/>
-        <v>0.82</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.2">
@@ -1436,7 +1436,7 @@
       </c>
       <c r="D40" s="20">
         <f>SUMPRODUCT($C38:$C39,D38:D39)</f>
-        <v>0.52275000000000005</v>
+        <v>0.34437500000000004</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="D43" s="4">
         <f t="shared" ref="D43" si="3">D38</f>
-        <v>0.44843749999999999</v>
+        <v>0.43046875000000001</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -1593,7 +1593,7 @@
       </c>
       <c r="D57" s="31">
         <f t="shared" ref="D57" si="6">D31</f>
-        <v>0.82</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.2">
@@ -1611,7 +1611,7 @@
       </c>
       <c r="D59" s="32">
         <f t="shared" ref="D59" si="7">D45*(D43*$C43 + (1-$C43 ))</f>
-        <v>0.6139062500000001</v>
+        <v>0.60132812499999999</v>
       </c>
     </row>
     <row r="60" spans="2:6" s="27" customFormat="1" x14ac:dyDescent="0.2">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="D60" s="29">
         <f t="shared" ref="D60" si="8">D52*(D43*$C43 + (1-$C43 ))</f>
-        <v>0.6139062500000001</v>
+        <v>0.60132812499999999</v>
       </c>
     </row>
     <row r="61" spans="2:6" s="27" customFormat="1" x14ac:dyDescent="0.2">
@@ -1637,7 +1637,7 @@
       </c>
       <c r="D61" s="29">
         <f t="shared" si="9"/>
-        <v>0.82</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="2:6" s="21" customFormat="1" x14ac:dyDescent="0.2">
@@ -1650,7 +1650,7 @@
       </c>
       <c r="D62" s="20">
         <f t="shared" ref="D62" si="10">SUMPRODUCT($C59:$C61,D59:D61)</f>
-        <v>0.65512500000000007</v>
+        <v>0.4810625</v>
       </c>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.2">
@@ -1694,15 +1694,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100012D17D2DA77674180682A0AA120B05E" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="87ee3a9c76d1b733a38dbfe83ae64a50">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4aeb20c0e3442673af7ee10786458764">
     <xsd:element name="properties">
@@ -1751,6 +1742,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
   <documentManagement/>
@@ -1758,14 +1758,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7573310-A6A2-40DF-9EDF-DF83977F74E4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{567AF07B-7B40-4961-8E2B-876B91C14513}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1780,6 +1772,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7573310-A6A2-40DF-9EDF-DF83977F74E4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E3251BF-7063-456F-AB34-DBC92B3DAB4F}">
   <ds:schemaRefs>
